--- a/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
+++ b/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBCCB1C-2A4A-468C-B2F1-645435AD8DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558CD4D-5B80-4E45-8C92-591033890632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDD74DFC-F296-4A99-A5A8-A795935FB6BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lp</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve">T, s </t>
+  </si>
+  <si>
+    <t>sqrt(L, cm)</t>
+  </si>
+  <si>
+    <t>sqrt(L, m)</t>
+  </si>
+  <si>
+    <t>ua(tsr)</t>
   </si>
 </sst>
 </file>
@@ -182,12 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +205,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B3EFA-3541-4007-B7DD-0383021B2AB0}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,51 +535,65 @@
     <col min="2" max="2" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4">
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>13</v>
       </c>
       <c r="D4" s="1">
@@ -587,20 +611,32 @@
       <c r="H4" s="1">
         <v>7.24</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <f>( SUM(D4:H4)/5)</f>
         <v>7.2260000000000009</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <f xml:space="preserve"> I4/10</f>
         <v>0.72260000000000013</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="K4" s="6">
+        <f>SQRT(C4)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="L4" s="6">
+        <f xml:space="preserve"> SQRT(C4/100)</f>
+        <v>0.36055512754639896</v>
+      </c>
+      <c r="M4" s="6">
+        <f>SQRT(SUM((D4-I4)^2,(E4-I4)^2,(F4-I4)^2,(G4-I4)^2,(H4-I4)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>7.2447222168969599E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>18.100000000000001</v>
       </c>
       <c r="D5" s="1">
@@ -618,20 +654,32 @@
       <c r="H5" s="1">
         <v>8.56</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I13" si="0">( SUM(D5:H5)/5)</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f t="shared" ref="J5:J13" si="1" xml:space="preserve"> I5/10</f>
         <v>0.85500000000000009</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K13" si="2">SQRT(C5)</f>
+        <v>4.2544094772365293</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L13" si="3" xml:space="preserve"> SQRT(C5/100)</f>
+        <v>0.42544094772365298</v>
+      </c>
+      <c r="M5" s="6">
+        <f>SQRT(SUM((D5-I5)^2,(E5-I5)^2,(F5-I5)^2,(G5-I5)^2,(H5-I5)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.3778691508111352E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>23.5</v>
       </c>
       <c r="D6" s="1">
@@ -649,20 +697,32 @@
       <c r="H6" s="1">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>9.7059999999999995</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>0.97059999999999991</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8476798574163293</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.48476798574163288</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6:M12" si="4">SQRT(SUM((D6-I6)^2,(E6-I6)^2,(F6-I6)^2,(G6-I6)^2,(H6-I6)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>2.616486193352096E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>28.6</v>
       </c>
       <c r="D7" s="1">
@@ -680,20 +740,32 @@
       <c r="H7" s="1">
         <v>10.72</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>10.712</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>1.0711999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>5.347896782848375</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.53478967828483759</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="4"/>
+        <v>3.9967486786138748E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>33.6</v>
       </c>
       <c r="D8" s="1">
@@ -711,20 +783,32 @@
       <c r="H8" s="1">
         <v>11.62</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>11.629999999999999</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>1.1629999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7965506984757758</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.57965506984757753</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3778691508111352E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>38.5</v>
       </c>
       <c r="D9" s="1">
@@ -742,20 +826,32 @@
       <c r="H9" s="1">
         <v>12.44</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>12.441999999999998</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>1.2441999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2048368229954285</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.62048368229954287</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1363520309162077E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>43.4</v>
       </c>
       <c r="D10" s="1">
@@ -773,20 +869,32 @@
       <c r="H10" s="1">
         <v>13.25</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>13.236000000000001</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>1.3236000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5878676368002411</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.6587867636800242</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1504607772540287E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>48.2</v>
       </c>
       <c r="D11" s="1">
@@ -804,20 +912,32 @@
       <c r="H11" s="1">
         <v>13.92</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>13.931999999999999</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>1.3931999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9426219830839129</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.69426219830839131</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="4"/>
+        <v>3.9967486786135703E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>53.3</v>
       </c>
       <c r="D12" s="1">
@@ -835,20 +955,32 @@
       <c r="H12" s="1">
         <v>14.64</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>14.648000000000001</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>1.4648000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.73006848993775919</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="4"/>
+        <v>3.9967486786135703E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>58.4</v>
       </c>
       <c r="D13" s="1">
@@ -866,13 +998,25 @@
       <c r="H13" s="1">
         <v>15.33</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>15.330000000000002</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>1.5330000000000001</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>7.6419892698171203</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76419892698171199</v>
+      </c>
+      <c r="M13" s="6">
+        <f>SQRT(SUM((D13-I13)^2,(E13-I13)^2,(F13-I13)^2,(G13-I13)^2,(H13-I13)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>9.487308853711754E-16</v>
       </c>
     </row>
   </sheetData>

--- a/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
+++ b/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558CD4D-5B80-4E45-8C92-591033890632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2076D832-603D-47E7-808B-F18FE57123E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDD74DFC-F296-4A99-A5A8-A795935FB6BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lp</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ua(tsr)</t>
+  </si>
+  <si>
+    <t>g, m/(s^2)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,11 +190,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,13 +216,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -523,51 +538,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B3EFA-3541-4007-B7DD-0383021B2AB0}">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -583,13 +602,13 @@
       <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -611,28 +630,32 @@
       <c r="H4" s="1">
         <v>7.24</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <f>( SUM(D4:H4)/5)</f>
         <v>7.2260000000000009</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <f xml:space="preserve"> I4/10</f>
         <v>0.72260000000000013</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <f>SQRT(C4)</f>
         <v>3.6055512754639891</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <f xml:space="preserve"> SQRT(C4/100)</f>
         <v>0.36055512754639896</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <f>SQRT(SUM((D4-I4)^2,(E4-I4)^2,(F4-I4)^2,(G4-I4)^2,(H4-I4)^2)*1.141*(1/(5*(5-1))))</f>
         <v>7.2447222168969599E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="0">((C4/100)/(J4/(POWER((2*3.1415),2))))</f>
+        <v>7.1019811375588144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -654,28 +677,32 @@
       <c r="H5" s="1">
         <v>8.56</v>
       </c>
-      <c r="I5" s="6">
-        <f t="shared" ref="I5:I13" si="0">( SUM(D5:H5)/5)</f>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I13" si="1">( SUM(D5:H5)/5)</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J13" si="1" xml:space="preserve"> I5/10</f>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J13" si="2" xml:space="preserve"> I5/10</f>
         <v>0.85500000000000009</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K13" si="2">SQRT(C5)</f>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K13" si="3">SQRT(C5)</f>
         <v>4.2544094772365293</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:L13" si="3" xml:space="preserve"> SQRT(C5/100)</f>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L13" si="4" xml:space="preserve"> SQRT(C5/100)</f>
         <v>0.42544094772365298</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <f>SQRT(SUM((D5-I5)^2,(E5-I5)^2,(F5-I5)^2,(G5-I5)^2,(H5-I5)^2)*1.141*(1/(5*(5-1))))</f>
         <v>3.3778691508111352E-3</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>8.3569264432748547</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -697,28 +724,32 @@
       <c r="H6" s="1">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.97059999999999991</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.8476798574163293</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.48476798574163288</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6:M12" si="5">SQRT(SUM((D6-I6)^2,(E6-I6)^2,(F6-I6)^2,(G6-I6)^2,(H6-I6)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>2.616486193352096E-3</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="0"/>
-        <v>9.7059999999999995</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97059999999999991</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8476798574163293</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="3"/>
-        <v>0.48476798574163288</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" ref="M6:M12" si="4">SQRT(SUM((D6-I6)^2,(E6-I6)^2,(F6-I6)^2,(G6-I6)^2,(H6-I6)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>2.616486193352096E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>9.5578826653616336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -740,28 +771,32 @@
       <c r="H7" s="1">
         <v>10.72</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>10.712</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0711999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
+        <v>5.347896782848375</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.53478967828483759</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9967486786138748E-3</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v>10.712</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0711999999999999</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="2"/>
-        <v>5.347896782848375</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="3"/>
-        <v>0.53478967828483759</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="4"/>
-        <v>3.9967486786138748E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>10.539732500000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -783,28 +818,32 @@
       <c r="H8" s="1">
         <v>11.62</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>11.629999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1629999999999998</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7965506984757758</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.57965506984757753</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3778691508111352E-3</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>11.629999999999999</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1629999999999998</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7965506984757758</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="3"/>
-        <v>0.57965506984757753</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3778691508111352E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>11.404957785038695</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -826,28 +865,32 @@
       <c r="H9" s="1">
         <v>12.44</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>12.441999999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2441999999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>6.2048368229954285</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.62048368229954287</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1363520309162077E-3</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="0"/>
-        <v>12.441999999999998</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2441999999999998</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="2"/>
-        <v>6.2048368229954285</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="3"/>
-        <v>0.62048368229954287</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="4"/>
-        <v>2.1363520309162077E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12.215314471146122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -869,28 +912,32 @@
       <c r="H10" s="1">
         <v>13.25</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>13.236000000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3236000000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5878676368002411</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.6587867636800242</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1504607772540287E-2</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="0"/>
-        <v>13.236000000000001</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3236000000000001</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="2"/>
-        <v>6.5878676368002411</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="3"/>
-        <v>0.6587867636800242</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1504607772540287E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12.943957861891811</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -912,28 +959,32 @@
       <c r="H11" s="1">
         <v>13.92</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>13.931999999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3931999999999998</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9426219830839129</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.69426219830839131</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9967486786135703E-3</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>13.931999999999999</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3931999999999998</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="2"/>
-        <v>6.9426219830839129</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="3"/>
-        <v>0.69426219830839131</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="4"/>
-        <v>3.9967486786135703E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13.657389389893774</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -955,28 +1006,32 @@
       <c r="H12" s="1">
         <v>14.64</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>14.648000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4648000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73006848993775919</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9967486786135703E-3</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="0"/>
-        <v>14.648000000000001</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4648000000000001</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="2"/>
-        <v>7.3006848993775915</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="3"/>
-        <v>0.73006848993775919</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="4"/>
-        <v>3.9967486786135703E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14.36425139063353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -998,25 +1053,29 @@
       <c r="H13" s="1">
         <v>15.33</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="0"/>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
         <v>15.330000000000002</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" si="1"/>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
         <v>1.5330000000000001</v>
       </c>
-      <c r="K13" s="6">
-        <f t="shared" si="2"/>
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
         <v>7.6419892698171203</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="3"/>
+      <c r="L13" s="4">
+        <f t="shared" si="4"/>
         <v>0.76419892698171199</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <f>SQRT(SUM((D13-I13)^2,(E13-I13)^2,(F13-I13)^2,(G13-I13)^2,(H13-I13)^2)*1.141*(1/(5*(5-1))))</f>
         <v>9.487308853711754E-16</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>15.038510095238093</v>
       </c>
     </row>
   </sheetData>

--- a/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
+++ b/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2076D832-603D-47E7-808B-F18FE57123E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5039DD8-6D7C-4161-96A3-3B873AC3B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDD74DFC-F296-4A99-A5A8-A795935FB6BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDD74DFC-F296-4A99-A5A8-A795935FB6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lp</t>
   </si>
@@ -107,23 +129,77 @@
     <t xml:space="preserve">T, s </t>
   </si>
   <si>
-    <t>sqrt(L, cm)</t>
+    <t>g, m/(s^2)</t>
   </si>
   <si>
-    <t>sqrt(L, m)</t>
+    <t>√L, √cm</t>
   </si>
   <si>
-    <t>ua(tsr)</t>
+    <t>L, m</t>
   </si>
   <si>
-    <t>g, m/(s^2)</t>
+    <t>√L, √m</t>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>REGLINE[T(√L)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +210,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,6 +324,2270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1081716878201479"/>
+          <c:y val="5.4388467378663465E-2"/>
+          <c:w val="0.8450902973437231"/>
+          <c:h val="0.82586739694582834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$4:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53299999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72260000000000013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97059999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2441999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3931999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5330000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AB1-4B76-9ACF-9534D0F7796E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1070350655"/>
+        <c:axId val="1070732639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1070350655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1070732639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1070732639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1070350655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1273092632364233"/>
+          <c:y val="4.4315990459214541E-2"/>
+          <c:w val="0.82863059373113523"/>
+          <c:h val="0.82999472458896684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.30000000000000004"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$4:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36055512754639896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42544094772365298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48476798574163288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53478967828483759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57965506984757753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62048368229954287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6587867636800242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69426219830839131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73006848993775919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76419892698171199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72260000000000013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97059999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2441999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3931999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5330000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BCE-4889-981C-6334963670E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="759577375"/>
+        <c:axId val="769554191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="759577375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="769554191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="769554191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="759577375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55431</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512380</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBC86FE-A95B-F322-9E75-3DA2382675C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298172</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB63C561-646C-2044-5FBA-6CB6D3365633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.00698</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07131</cdr:x>
+      <cdr:y>0.08443</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9736B341-25E5-4D89-4E49-C4960685935E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="21981"/>
+          <a:ext cx="362101" cy="244035"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>T, s</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91486</cdr:x>
+      <cdr:y>0.92558</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99088070-EAA6-CAD7-375A-3EFA0E8A614B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4645268" y="2916114"/>
+          <a:ext cx="432290" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>L, m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87625</cdr:x>
+      <cdr:y>0.92562</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBC40E1-4C84-E200-CB36-D628951FF0FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4176764" y="2917899"/>
+          <a:ext cx="589876" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>√L, √m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06744</cdr:x>
+      <cdr:y>0.06831</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE18570-54EA-0CF7-BA69-459500C07E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="324518" cy="215348"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>T, s</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,20 +2887,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B3EFA-3541-4007-B7DD-0383021B2AB0}">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -565,26 +2918,32 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3">
@@ -602,13 +2961,15 @@
       <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,32 +2991,43 @@
       <c r="H4" s="1">
         <v>7.24</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2" cm="1">
+        <f t="array" ref="I4:I13">C4:C13/100</f>
+        <v>0.13</v>
+      </c>
+      <c r="J4" s="4">
         <f>( SUM(D4:H4)/5)</f>
         <v>7.2260000000000009</v>
       </c>
-      <c r="J4" s="4">
-        <f xml:space="preserve"> I4/10</f>
+      <c r="K4" s="4">
+        <f xml:space="preserve"> J4/10</f>
         <v>0.72260000000000013</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <f>SQRT(C4)</f>
         <v>3.6055512754639891</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <f xml:space="preserve"> SQRT(C4/100)</f>
         <v>0.36055512754639896</v>
       </c>
-      <c r="M4" s="4">
-        <f>SQRT(SUM((D4-I4)^2,(E4-I4)^2,(F4-I4)^2,(G4-I4)^2,(H4-I4)^2)*1.141*(1/(5*(5-1))))</f>
+      <c r="N4" s="4">
+        <f>SQRT(SUM((D4-J4)^2,(E4-J4)^2,(F4-J4)^2,(G4-J4)^2,(H4-J4)^2)*1.141*(1/(5*(5-1))))</f>
         <v>7.2447222168969599E-3</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N13" si="0">((C4/100)/(J4/(POWER((2*3.1415),2))))</f>
-        <v>7.1019811375588144</v>
+      <c r="O4" s="4">
+        <f>((I4)/(POWER(K4,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8283713500675525</v>
+      </c>
+      <c r="R4" cm="1">
+        <f t="array" ref="R4:S8">LINEST(K4:K13,M4:M13,TRUE,TRUE)</f>
+        <v>2.0084980160147983</v>
+      </c>
+      <c r="S4">
+        <v>-1.4556703818064953E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -677,32 +3049,41 @@
       <c r="H5" s="1">
         <v>8.56</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I13" si="1">( SUM(D5:H5)/5)</f>
+      <c r="I5" s="2">
+        <v>0.18100000000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <f>( SUM(D5:H5)/5)</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:J13" si="2" xml:space="preserve"> I5/10</f>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K13" si="0" xml:space="preserve"> J5/10</f>
         <v>0.85500000000000009</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" ref="K5:K13" si="3">SQRT(C5)</f>
+      <c r="L5" s="4">
+        <f>SQRT(C5)</f>
         <v>4.2544094772365293</v>
       </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5:L13" si="4" xml:space="preserve"> SQRT(C5/100)</f>
+      <c r="M5" s="4">
+        <f xml:space="preserve"> SQRT(C5/100)</f>
         <v>0.42544094772365298</v>
       </c>
-      <c r="M5" s="4">
-        <f>SQRT(SUM((D5-I5)^2,(E5-I5)^2,(F5-I5)^2,(G5-I5)^2,(H5-I5)^2)*1.141*(1/(5*(5-1))))</f>
+      <c r="N5" s="4">
+        <f>SQRT(SUM((D5-J5)^2,(E5-J5)^2,(F5-J5)^2,(G5-J5)^2,(H5-J5)^2)*1.141*(1/(5*(5-1))))</f>
         <v>3.3778691508111352E-3</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>8.3569264432748547</v>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O13" si="1">((I5)/(POWER(K5,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.774182974590472</v>
+      </c>
+      <c r="R5">
+        <v>3.1544174375853482E-3</v>
+      </c>
+      <c r="S5">
+        <v>1.8889667239728038E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -724,32 +3105,41 @@
       <c r="H6" s="1">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <f>( SUM(D6:H6)/5)</f>
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.97059999999999991</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SQRT(C6)</f>
+        <v>4.8476798574163293</v>
+      </c>
+      <c r="M6" s="4">
+        <f xml:space="preserve"> SQRT(C6/100)</f>
+        <v>0.48476798574163288</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SQRT(SUM((D6-J6)^2,(E6-J6)^2,(F6-J6)^2,(G6-J6)^2,(H6-J6)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>2.616486193352096E-3</v>
+      </c>
+      <c r="O6" s="4">
         <f t="shared" si="1"/>
-        <v>9.7059999999999995</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.97059999999999991</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="3"/>
-        <v>4.8476798574163293</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="4"/>
-        <v>0.48476798574163288</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" ref="M6:M12" si="5">SQRT(SUM((D6-I6)^2,(E6-I6)^2,(F6-I6)^2,(G6-I6)^2,(H6-I6)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>2.616486193352096E-3</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>9.5578826653616336</v>
+        <v>9.847396111025791</v>
+      </c>
+      <c r="R6">
+        <v>0.99998026773529392</v>
+      </c>
+      <c r="S6">
+        <v>1.2626684865640482E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -771,32 +3161,41 @@
       <c r="H7" s="1">
         <v>10.72</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="J7" s="4">
+        <f>( SUM(D7:H7)/5)</f>
+        <v>10.712</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0711999999999999</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SQRT(C7)</f>
+        <v>5.347896782848375</v>
+      </c>
+      <c r="M7" s="4">
+        <f xml:space="preserve"> SQRT(C7/100)</f>
+        <v>0.53478967828483759</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SQRT(SUM((D7-J7)^2,(E7-J7)^2,(F7-J7)^2,(G7-J7)^2,(H7-J7)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.9967486786138748E-3</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" si="1"/>
-        <v>10.712</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="2"/>
-        <v>1.0711999999999999</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="3"/>
-        <v>5.347896782848375</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="4"/>
-        <v>0.53478967828483759</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="5"/>
-        <v>3.9967486786138748E-3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>10.539732500000003</v>
+        <v>9.8391826923076948</v>
+      </c>
+      <c r="R7">
+        <v>405419.36067873292</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -818,32 +3217,41 @@
       <c r="H8" s="1">
         <v>11.62</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <f>( SUM(D8:H8)/5)</f>
+        <v>11.629999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1629999999999998</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SQRT(C8)</f>
+        <v>5.7965506984757758</v>
+      </c>
+      <c r="M8" s="4">
+        <f xml:space="preserve"> SQRT(C8/100)</f>
+        <v>0.57965506984757753</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SQRT(SUM((D8-J8)^2,(E8-J8)^2,(F8-J8)^2,(G8-J8)^2,(H8-J8)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.3778691508111352E-3</v>
+      </c>
+      <c r="O8" s="4">
         <f t="shared" si="1"/>
-        <v>11.629999999999999</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1629999999999998</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="3"/>
-        <v>5.7965506984757758</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="4"/>
-        <v>0.57965506984757753</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="5"/>
-        <v>3.3778691508111352E-3</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>11.404957785038695</v>
+        <v>9.8064985253987089</v>
+      </c>
+      <c r="R8">
+        <v>0.64637294134634415</v>
+      </c>
+      <c r="S8">
+        <v>1.275465365569555E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -865,32 +3273,35 @@
       <c r="H9" s="1">
         <v>12.44</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <f>( SUM(D9:H9)/5)</f>
+        <v>12.441999999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2441999999999998</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SQRT(C9)</f>
+        <v>6.2048368229954285</v>
+      </c>
+      <c r="M9" s="4">
+        <f xml:space="preserve"> SQRT(C9/100)</f>
+        <v>0.62048368229954287</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SQRT(SUM((D9-J9)^2,(E9-J9)^2,(F9-J9)^2,(G9-J9)^2,(H9-J9)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>2.1363520309162077E-3</v>
+      </c>
+      <c r="O9" s="4">
         <f t="shared" si="1"/>
-        <v>12.441999999999998</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2441999999999998</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="3"/>
-        <v>6.2048368229954285</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="4"/>
-        <v>0.62048368229954287</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="5"/>
-        <v>2.1363520309162077E-3</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>12.215314471146122</v>
+        <v>9.8178061976741073</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -912,32 +3323,35 @@
       <c r="H10" s="1">
         <v>13.25</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="J10" s="4">
+        <f>( SUM(D10:H10)/5)</f>
+        <v>13.236000000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3236000000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SQRT(C10)</f>
+        <v>6.5878676368002411</v>
+      </c>
+      <c r="M10" s="4">
+        <f xml:space="preserve"> SQRT(C10/100)</f>
+        <v>0.6587867636800242</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SQRT(SUM((D10-J10)^2,(E10-J10)^2,(F10-J10)^2,(G10-J10)^2,(H10-J10)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>1.1504607772540287E-2</v>
+      </c>
+      <c r="O10" s="4">
         <f t="shared" si="1"/>
-        <v>13.236000000000001</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.3236000000000001</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="3"/>
-        <v>6.5878676368002411</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="4"/>
-        <v>0.6587867636800242</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1504607772540287E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>12.943957861891811</v>
+        <v>9.7793577076849569</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -959,32 +3373,35 @@
       <c r="H11" s="1">
         <v>13.92</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <f>( SUM(D11:H11)/5)</f>
+        <v>13.931999999999999</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3931999999999998</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SQRT(C11)</f>
+        <v>6.9426219830839129</v>
+      </c>
+      <c r="M11" s="4">
+        <f xml:space="preserve"> SQRT(C11/100)</f>
+        <v>0.69426219830839131</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SQRT(SUM((D11-J11)^2,(E11-J11)^2,(F11-J11)^2,(G11-J11)^2,(H11-J11)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.9967486786135703E-3</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>13.931999999999999</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="2"/>
-        <v>1.3931999999999998</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="3"/>
-        <v>6.9426219830839129</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="4"/>
-        <v>0.69426219830839131</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="5"/>
-        <v>3.9967486786135703E-3</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>13.657389389893774</v>
+        <v>9.8028921833862874</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1006,32 +3423,35 @@
       <c r="H12" s="1">
         <v>14.64</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
+        <v>0.53299999999999992</v>
+      </c>
+      <c r="J12" s="4">
+        <f>( SUM(D12:H12)/5)</f>
+        <v>14.648000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4648000000000001</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SQRT(C12)</f>
+        <v>7.3006848993775915</v>
+      </c>
+      <c r="M12" s="4">
+        <f xml:space="preserve"> SQRT(C12/100)</f>
+        <v>0.73006848993775919</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SQRT(SUM((D12-J12)^2,(E12-J12)^2,(F12-J12)^2,(G12-J12)^2,(H12-J12)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.9967486786135703E-3</v>
+      </c>
+      <c r="O12" s="4">
         <f t="shared" si="1"/>
-        <v>14.648000000000001</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="2"/>
-        <v>1.4648000000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="3"/>
-        <v>7.3006848993775915</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.73006848993775919</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="5"/>
-        <v>3.9967486786135703E-3</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>14.36425139063353</v>
+        <v>9.8062884971556041</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1053,37 +3473,43 @@
       <c r="H13" s="1">
         <v>15.33</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
+      <c r="I13" s="2">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <f>( SUM(D13:H13)/5)</f>
         <v>15.330000000000002</v>
       </c>
-      <c r="J13" s="4">
-        <f t="shared" si="2"/>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
         <v>1.5330000000000001</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="3"/>
+      <c r="L13" s="4">
+        <f>SQRT(C13)</f>
         <v>7.6419892698171203</v>
       </c>
-      <c r="L13" s="4">
-        <f t="shared" si="4"/>
+      <c r="M13" s="4">
+        <f xml:space="preserve"> SQRT(C13/100)</f>
         <v>0.76419892698171199</v>
       </c>
-      <c r="M13" s="4">
-        <f>SQRT(SUM((D13-I13)^2,(E13-I13)^2,(F13-I13)^2,(G13-I13)^2,(H13-I13)^2)*1.141*(1/(5*(5-1))))</f>
+      <c r="N13" s="4">
+        <f>SQRT(SUM((D13-J13)^2,(E13-J13)^2,(F13-J13)^2,(G13-J13)^2,(H13-J13)^2)*1.141*(1/(5*(5-1))))</f>
         <v>9.487308853711754E-16</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>15.038510095238093</v>
+      <c r="O13" s="4">
+        <f>((I13)/(POWER(K13,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8098565526667265</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
+++ b/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5039DD8-6D7C-4161-96A3-3B873AC3B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB109CF-AA9A-4108-8003-65103AA8BE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDD74DFC-F296-4A99-A5A8-A795935FB6BA}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lp</t>
   </si>
@@ -194,6 +194,9 @@
   <si>
     <t>REGLINE[T(√L)]</t>
   </si>
+  <si>
+    <t>u(T), s</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,13 +305,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -456,7 +460,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$K$4:$K$13</c:f>
+              <c:f>Arkusz1!$L$4:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -776,7 +780,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$4:$M$13</c:f>
+              <c:f>Arkusz1!$J$4:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -815,7 +819,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$K$4:$K$13</c:f>
+              <c:f>Arkusz1!$L$4:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2887,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B3EFA-3541-4007-B7DD-0383021B2AB0}">
-  <dimension ref="B2:S13"/>
+  <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,50 +2906,56 @@
     <col min="16" max="17" width="14.85546875" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -2961,15 +2971,16 @@
       <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,38 +3007,39 @@
         <v>0.13</v>
       </c>
       <c r="J4" s="4">
+        <f xml:space="preserve"> SQRT(C4/100)</f>
+        <v>0.36055512754639896</v>
+      </c>
+      <c r="K4" s="4">
         <f>( SUM(D4:H4)/5)</f>
         <v>7.2260000000000009</v>
       </c>
-      <c r="K4" s="4">
-        <f xml:space="preserve"> J4/10</f>
+      <c r="L4" s="4">
+        <f xml:space="preserve"> K4/10</f>
         <v>0.72260000000000013</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <f>SQRT(SUM((D4-K4)^2,(E4-K4)^2,(F4-K4)^2,(G4-K4)^2,(H4-K4)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>7.2447222168969599E-3</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4">
+        <f>((I4)/(POWER(L4,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8283713500675525</v>
+      </c>
+      <c r="Q4" s="4">
         <f>SQRT(C4)</f>
         <v>3.6055512754639891</v>
       </c>
-      <c r="M4" s="4">
-        <f xml:space="preserve"> SQRT(C4/100)</f>
-        <v>0.36055512754639896</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SQRT(SUM((D4-J4)^2,(E4-J4)^2,(F4-J4)^2,(G4-J4)^2,(H4-J4)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>7.2447222168969599E-3</v>
-      </c>
-      <c r="O4" s="4">
-        <f>((I4)/(POWER(K4,2)/(POWER((2*3.1415),2))))</f>
-        <v>9.8283713500675525</v>
-      </c>
-      <c r="R4" cm="1">
-        <f t="array" ref="R4:S8">LINEST(K4:K13,M4:M13,TRUE,TRUE)</f>
+      <c r="S4" cm="1">
+        <f t="array" ref="S4:T8">LINEST(L4:L13,J4:J13,TRUE,TRUE)</f>
         <v>2.0084980160147983</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-1.4556703818064953E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3053,37 +3065,38 @@
         <v>0.18100000000000002</v>
       </c>
       <c r="J5" s="4">
+        <f xml:space="preserve"> SQRT(C5/100)</f>
+        <v>0.42544094772365298</v>
+      </c>
+      <c r="K5" s="4">
         <f>( SUM(D5:H5)/5)</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" ref="K5:K13" si="0" xml:space="preserve"> J5/10</f>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L13" si="0" xml:space="preserve"> K5/10</f>
         <v>0.85500000000000009</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <f>SQRT(SUM((D5-K5)^2,(E5-K5)^2,(F5-K5)^2,(G5-K5)^2,(H5-K5)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.3778691508111352E-3</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4">
+        <f>((I5)/(POWER(L5,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.774182974590472</v>
+      </c>
+      <c r="Q5" s="4">
         <f>SQRT(C5)</f>
         <v>4.2544094772365293</v>
       </c>
-      <c r="M5" s="4">
-        <f xml:space="preserve"> SQRT(C5/100)</f>
-        <v>0.42544094772365298</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SQRT(SUM((D5-J5)^2,(E5-J5)^2,(F5-J5)^2,(G5-J5)^2,(H5-J5)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>3.3778691508111352E-3</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5:O13" si="1">((I5)/(POWER(K5,2)/(POWER((2*3.1415),2))))</f>
-        <v>9.774182974590472</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.1544174375853482E-3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.8889667239728038E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3109,37 +3122,38 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="J6" s="4">
+        <f xml:space="preserve"> SQRT(C6/100)</f>
+        <v>0.48476798574163288</v>
+      </c>
+      <c r="K6" s="4">
         <f>( SUM(D6:H6)/5)</f>
         <v>9.7059999999999995</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>0.97059999999999991</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <f>SQRT(SUM((D6-K6)^2,(E6-K6)^2,(F6-K6)^2,(G6-K6)^2,(H6-K6)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>2.616486193352096E-3</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4">
+        <f>((I6)/(POWER(L6,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.847396111025791</v>
+      </c>
+      <c r="Q6" s="4">
         <f>SQRT(C6)</f>
         <v>4.8476798574163293</v>
       </c>
-      <c r="M6" s="4">
-        <f xml:space="preserve"> SQRT(C6/100)</f>
-        <v>0.48476798574163288</v>
-      </c>
-      <c r="N6" s="4">
-        <f>SQRT(SUM((D6-J6)^2,(E6-J6)^2,(F6-J6)^2,(G6-J6)^2,(H6-J6)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>2.616486193352096E-3</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="1"/>
-        <v>9.847396111025791</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.99998026773529392</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1.2626684865640482E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3165,37 +3179,38 @@
         <v>0.28600000000000003</v>
       </c>
       <c r="J7" s="4">
+        <f xml:space="preserve"> SQRT(C7/100)</f>
+        <v>0.53478967828483759</v>
+      </c>
+      <c r="K7" s="4">
         <f>( SUM(D7:H7)/5)</f>
         <v>10.712</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>1.0711999999999999</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <f>SQRT(SUM((D7-K7)^2,(E7-K7)^2,(F7-K7)^2,(G7-K7)^2,(H7-K7)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.9967486786138748E-3</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4">
+        <f>((I7)/(POWER(L7,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8391826923076948</v>
+      </c>
+      <c r="Q7" s="4">
         <f>SQRT(C7)</f>
         <v>5.347896782848375</v>
       </c>
-      <c r="M7" s="4">
-        <f xml:space="preserve"> SQRT(C7/100)</f>
-        <v>0.53478967828483759</v>
-      </c>
-      <c r="N7" s="4">
-        <f>SQRT(SUM((D7-J7)^2,(E7-J7)^2,(F7-J7)^2,(G7-J7)^2,(H7-J7)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>3.9967486786138748E-3</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8391826923076948</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
         <v>405419.36067873292</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3221,37 +3236,38 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="J8" s="4">
+        <f xml:space="preserve"> SQRT(C8/100)</f>
+        <v>0.57965506984757753</v>
+      </c>
+      <c r="K8" s="4">
         <f>( SUM(D8:H8)/5)</f>
         <v>11.629999999999999</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>1.1629999999999998</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <f>SQRT(SUM((D8-K8)^2,(E8-K8)^2,(F8-K8)^2,(G8-K8)^2,(H8-K8)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.3778691508111352E-3</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4">
+        <f>((I8)/(POWER(L8,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8064985253987089</v>
+      </c>
+      <c r="Q8" s="4">
         <f>SQRT(C8)</f>
         <v>5.7965506984757758</v>
       </c>
-      <c r="M8" s="4">
-        <f xml:space="preserve"> SQRT(C8/100)</f>
-        <v>0.57965506984757753</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SQRT(SUM((D8-J8)^2,(E8-J8)^2,(F8-J8)^2,(G8-J8)^2,(H8-J8)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>3.3778691508111352E-3</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8064985253987089</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.64637294134634415</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.275465365569555E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3277,31 +3293,32 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="J9" s="4">
+        <f xml:space="preserve"> SQRT(C9/100)</f>
+        <v>0.62048368229954287</v>
+      </c>
+      <c r="K9" s="4">
         <f>( SUM(D9:H9)/5)</f>
         <v>12.441999999999998</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>1.2441999999999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <f>SQRT(SUM((D9-K9)^2,(E9-K9)^2,(F9-K9)^2,(G9-K9)^2,(H9-K9)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>2.1363520309162077E-3</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="P9" s="4">
+        <f>((I9)/(POWER(L9,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8178061976741073</v>
+      </c>
+      <c r="Q9" s="4">
         <f>SQRT(C9)</f>
         <v>6.2048368229954285</v>
       </c>
-      <c r="M9" s="4">
-        <f xml:space="preserve"> SQRT(C9/100)</f>
-        <v>0.62048368229954287</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SQRT(SUM((D9-J9)^2,(E9-J9)^2,(F9-J9)^2,(G9-J9)^2,(H9-J9)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>2.1363520309162077E-3</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8178061976741073</v>
-      </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3327,31 +3344,32 @@
         <v>0.434</v>
       </c>
       <c r="J10" s="4">
+        <f xml:space="preserve"> SQRT(C10/100)</f>
+        <v>0.6587867636800242</v>
+      </c>
+      <c r="K10" s="4">
         <f>( SUM(D10:H10)/5)</f>
         <v>13.236000000000001</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>1.3236000000000001</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <f>SQRT(SUM((D10-K10)^2,(E10-K10)^2,(F10-K10)^2,(G10-K10)^2,(H10-K10)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>1.1504607772540287E-2</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="P10" s="4">
+        <f>((I10)/(POWER(L10,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.7793577076849569</v>
+      </c>
+      <c r="Q10" s="4">
         <f>SQRT(C10)</f>
         <v>6.5878676368002411</v>
       </c>
-      <c r="M10" s="4">
-        <f xml:space="preserve"> SQRT(C10/100)</f>
-        <v>0.6587867636800242</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SQRT(SUM((D10-J10)^2,(E10-J10)^2,(F10-J10)^2,(G10-J10)^2,(H10-J10)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>1.1504607772540287E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="1"/>
-        <v>9.7793577076849569</v>
-      </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3377,31 +3395,32 @@
         <v>0.48200000000000004</v>
       </c>
       <c r="J11" s="4">
+        <f xml:space="preserve"> SQRT(C11/100)</f>
+        <v>0.69426219830839131</v>
+      </c>
+      <c r="K11" s="4">
         <f>( SUM(D11:H11)/5)</f>
         <v>13.931999999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>1.3931999999999998</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <f>SQRT(SUM((D11-K11)^2,(E11-K11)^2,(F11-K11)^2,(G11-K11)^2,(H11-K11)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.9967486786135703E-3</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="P11" s="4">
+        <f>((I11)/(POWER(L11,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8028921833862874</v>
+      </c>
+      <c r="Q11" s="4">
         <f>SQRT(C11)</f>
         <v>6.9426219830839129</v>
       </c>
-      <c r="M11" s="4">
-        <f xml:space="preserve"> SQRT(C11/100)</f>
-        <v>0.69426219830839131</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SQRT(SUM((D11-J11)^2,(E11-J11)^2,(F11-J11)^2,(G11-J11)^2,(H11-J11)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>3.9967486786135703E-3</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8028921833862874</v>
-      </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3427,31 +3446,32 @@
         <v>0.53299999999999992</v>
       </c>
       <c r="J12" s="4">
+        <f xml:space="preserve"> SQRT(C12/100)</f>
+        <v>0.73006848993775919</v>
+      </c>
+      <c r="K12" s="4">
         <f>( SUM(D12:H12)/5)</f>
         <v>14.648000000000001</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>1.4648000000000001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <f>SQRT(SUM((D12-K12)^2,(E12-K12)^2,(F12-K12)^2,(G12-K12)^2,(H12-K12)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>3.9967486786135703E-3</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="P12" s="4">
+        <f>((I12)/(POWER(L12,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8062884971556041</v>
+      </c>
+      <c r="Q12" s="4">
         <f>SQRT(C12)</f>
         <v>7.3006848993775915</v>
       </c>
-      <c r="M12" s="4">
-        <f xml:space="preserve"> SQRT(C12/100)</f>
-        <v>0.73006848993775919</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SQRT(SUM((D12-J12)^2,(E12-J12)^2,(F12-J12)^2,(G12-J12)^2,(H12-J12)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>3.9967486786135703E-3</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="1"/>
-        <v>9.8062884971556041</v>
-      </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3477,28 +3497,29 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="J13" s="4">
+        <f xml:space="preserve"> SQRT(C13/100)</f>
+        <v>0.76419892698171199</v>
+      </c>
+      <c r="K13" s="4">
         <f>( SUM(D13:H13)/5)</f>
         <v>15.330000000000002</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>1.5330000000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <f>SQRT(SUM((D13-K13)^2,(E13-K13)^2,(F13-K13)^2,(G13-K13)^2,(H13-K13)^2)*1.141*(1/(5*(5-1))))</f>
+        <v>9.487308853711754E-16</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="P13" s="4">
+        <f>((I13)/(POWER(L13,2)/(POWER((2*3.1415),2))))</f>
+        <v>9.8098565526667265</v>
+      </c>
+      <c r="Q13" s="4">
         <f>SQRT(C13)</f>
         <v>7.6419892698171203</v>
-      </c>
-      <c r="M13" s="4">
-        <f xml:space="preserve"> SQRT(C13/100)</f>
-        <v>0.76419892698171199</v>
-      </c>
-      <c r="N13" s="4">
-        <f>SQRT(SUM((D13-J13)^2,(E13-J13)^2,(F13-J13)^2,(G13-J13)^2,(H13-J13)^2)*1.141*(1/(5*(5-1))))</f>
-        <v>9.487308853711754E-16</v>
-      </c>
-      <c r="O13" s="4">
-        <f>((I13)/(POWER(K13,2)/(POWER((2*3.1415),2))))</f>
-        <v>9.8098565526667265</v>
       </c>
     </row>
   </sheetData>

--- a/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
+++ b/Our_Labs/Lab_6/Lab_6 obliczenia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA470F8-CB0E-44FB-B6D0-F25663FA8CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF245BF1-006E-484E-AC49-DC2A15D5385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Lp</t>
   </si>
@@ -189,12 +189,54 @@
   <si>
     <t>u(L), m</t>
   </si>
+  <si>
+    <r>
+      <t>śr. arytm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>śr.u(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +253,14 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -244,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -276,18 +326,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,7 +369,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -399,8 +480,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.108134850519471"/>
-          <c:y val="5.43380027112517E-2"/>
+          <c:x val="0.12382127543417266"/>
+          <c:y val="5.4337946834886859E-2"/>
           <c:w val="0.84500671425542395"/>
           <c:h val="0.82580207862629895"/>
         </c:manualLayout>
@@ -418,7 +499,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -445,7 +526,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -478,19 +559,18 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000009E-3"/>
+          </c:errBars>
+          <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
+            <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="1"/>
-            <c:spPr>
-              <a:ln w="9360">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
+            <c:val val="4.0000000000000013E-4"/>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -631,7 +711,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10942419"/>
@@ -681,7 +761,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13917797"/>
@@ -733,10 +813,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127294769657083"/>
-          <c:y val="4.4307411213885997E-2"/>
-          <c:w val="0.828599468883501"/>
-          <c:h val="0.82985040538997401"/>
+          <c:x val="9.2851729954354909E-2"/>
+          <c:y val="4.0340337432463375E-2"/>
+          <c:w val="0.87365063593974635"/>
+          <c:h val="0.82991218559566393"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -752,7 +832,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -779,7 +859,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -812,19 +892,18 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000009E-3"/>
+          </c:errBars>
+          <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
+            <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.3"/>
-            <c:spPr>
-              <a:ln w="9360">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
+            <c:val val="4.0000000000000013E-4"/>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -964,7 +1043,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="79017660"/>
@@ -1014,7 +1093,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29483268"/>
@@ -1057,15 +1136,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>75147</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>189809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>511920</xdr:colOff>
+      <xdr:colOff>531627</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>137609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1093,15 +1172,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>389160</xdr:colOff>
+      <xdr:colOff>424999</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>9696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:colOff>374564</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1137,7 +1216,7 @@
       <cdr:y>0.007</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.07124</cdr:x>
+      <cdr:x>0.06972</cdr:x>
       <cdr:y>0.08439</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -1153,8 +1232,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="22320"/>
-          <a:ext cx="362880" cy="246600"/>
+          <a:off x="0" y="22304"/>
+          <a:ext cx="338698" cy="246588"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1189,12 +1268,12 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:t>T, s</a:t>
           </a:r>
           <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="+mn-lt"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -1202,11 +1281,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.91476</cdr:x>
+      <cdr:x>0.90138</cdr:x>
       <cdr:y>0.92544</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99986</cdr:x>
+      <cdr:x>0.99039</cdr:x>
       <cdr:y>0.99977</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -1222,8 +1301,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4659480" y="2949120"/>
-          <a:ext cx="433440" cy="236880"/>
+          <a:off x="4378612" y="2948729"/>
+          <a:ext cx="432413" cy="236838"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1261,12 +1340,12 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" strike="noStrike" spc="-1">
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:t>L, m</a:t>
           </a:r>
           <a:endParaRPr sz="1100" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="+mn-lt"/>
           </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1292,12 +1371,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87623</cdr:x>
-      <cdr:y>0.92555</cdr:y>
+      <cdr:x>0.90562</cdr:x>
+      <cdr:y>0.92578</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99988</cdr:x>
-      <cdr:y>0.99977</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1306,8 +1385,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5464080" y="2917800"/>
-          <a:ext cx="771120" cy="234000"/>
+          <a:off x="5383867" y="2963802"/>
+          <a:ext cx="561056" cy="237609"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1735,161 +1814,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T13"/>
+  <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" customWidth="1"/>
-    <col min="22" max="22" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="U3">
+        <f>SUM(P4:P13)/10</f>
+        <v>9.8111832791957916</v>
+      </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>7.23</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>7.2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>7.23</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>7.23</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>7.24</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f t="array" ref="I4:I13">C4:C13/100</f>
         <v>0.13</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J13" si="0">SQRT(C4/100)</f>
         <v>0.36055512754639896</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K13" si="1">( SUM(D4:H4)/5)</f>
         <v>7.2260000000000009</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L13" si="2">K4/10</f>
         <v>0.72260000000000013</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <f t="shared" ref="M4:M13" si="3">SQRT(SUM((D4-K4)^2,(E4-K4)^2,(F4-K4)^2,(G4-K4)^2,(H4-K4)^2)*1.141*(1/(5*(5-1))))</f>
         <v>7.2447222168969599E-3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <f t="shared" ref="N4:N13" si="4">M4/10</f>
         <v>7.2447222168969599E-4</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <f t="shared" ref="P4:P13" si="5">((I4)/(POWER(L4,2)/(POWER((2*3.1415),2))))</f>
         <v>9.8283713500675525</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <f t="shared" ref="Q4:Q13" si="6">SQRT(C4)</f>
         <v>3.6055512754639891</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <f>SQRT(POWER(((4*3.1415)/POWER(L4,2))*O4,2)+POWER(((-8*C4*3.1415)/POWER(L4,3))*N4,2))</f>
         <v>0.63147400913894947</v>
       </c>
@@ -1901,64 +1987,64 @@
         <v>-1.4556703818064953E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>8.5399999999999991</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>8.56</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.18100000000000002</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.42544094772365298</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>0.85500000000000009</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <f t="shared" si="3"/>
         <v>3.3778691508111352E-3</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <f t="shared" si="4"/>
         <v>3.377869150811135E-4</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <f t="shared" si="5"/>
         <v>9.774182974590472</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <f t="shared" si="6"/>
         <v>4.2544094772365293</v>
       </c>
-      <c r="R5" s="4">
-        <f t="shared" ref="R5:R13" si="7">SQRT(POWER(((4*3.1415)/POWER(L5,2))*O5,2)+POWER(((-8*C5*3.1415)/POWER(L5,3))*N5,2))</f>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:R12" si="7">SQRT(POWER(((4*3.1415)/POWER(L5,2))*O5,2)+POWER(((-8*C5*3.1415)/POWER(L5,3))*N5,2))</f>
         <v>0.25118908243235216</v>
       </c>
       <c r="S5">
@@ -1968,63 +2054,63 @@
         <v>1.8889667239728038E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>23.5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>9.7100000000000009</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>9.7100000000000009</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.23499999999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0.48476798574163288</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>9.7059999999999995</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>0.97059999999999991</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <f t="shared" si="3"/>
         <v>2.616486193352096E-3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <f t="shared" si="4"/>
         <v>2.616486193352096E-4</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <f t="shared" si="5"/>
         <v>9.847396111025791</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <f t="shared" si="6"/>
         <v>4.8476798574163293</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2">
         <f t="shared" si="7"/>
         <v>0.17367519237512202</v>
       </c>
@@ -2034,64 +2120,67 @@
       <c r="T6">
         <v>1.2626684865640482E-3</v>
       </c>
+      <c r="U6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>28.6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>10.71</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>10.72</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>10.7</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>10.71</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>10.72</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.28600000000000003</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>0.53478967828483759</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>10.712</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>1.0711999999999999</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>3.9967486786138748E-3</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <f t="shared" si="4"/>
         <v>3.996748678613875E-4</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <f t="shared" si="5"/>
         <v>9.8391826923076948</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <f t="shared" si="6"/>
         <v>5.347896782848375</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <f t="shared" si="7"/>
         <v>0.23601365523152934</v>
       </c>
@@ -2101,64 +2190,68 @@
       <c r="T7">
         <v>8</v>
       </c>
+      <c r="U7">
+        <f>SUM(R4:R13)/10</f>
+        <v>0.24948154410787096</v>
+      </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>33.6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>11.63</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>11.63</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>11.63</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>11.64</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>11.62</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.33600000000000002</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>0.57965506984757753</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>11.629999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>1.1629999999999998</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
         <v>3.3778691508111352E-3</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <f t="shared" si="4"/>
         <v>3.377869150811135E-4</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <f t="shared" si="5"/>
         <v>9.8064985253987089</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <f t="shared" si="6"/>
         <v>5.7965506984757758</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <f t="shared" si="7"/>
         <v>0.18345963155173187</v>
       </c>
@@ -2169,307 +2262,306 @@
         <v>1.275465365569555E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>38.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>12.44</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>12.44</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>12.44</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>12.45</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>12.44</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>0.62048368229954287</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>12.441999999999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>1.2441999999999998</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>2.1363520309162077E-3</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <f t="shared" si="4"/>
         <v>2.1363520309162077E-4</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <f t="shared" si="5"/>
         <v>9.8178061976741073</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <f t="shared" si="6"/>
         <v>6.2048368229954285</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <f t="shared" si="7"/>
         <v>0.1100504741162663</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>43.4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>13.27</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>13.21</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>13.22</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>13.23</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>13.25</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>0.434</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>0.6587867636800242</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>13.236000000000001</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>1.3236000000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
         <v>1.1504607772540287E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <f t="shared" si="4"/>
         <v>1.1504607772540288E-3</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <f t="shared" si="5"/>
         <v>9.7793577076849569</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <f t="shared" si="6"/>
         <v>6.5878676368002411</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="2">
         <f t="shared" si="7"/>
         <v>0.54157847251303093</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>48.2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>13.94</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>13.94</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>13.93</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>13.93</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>13.92</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>0.48200000000000004</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>0.69426219830839131</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>13.931999999999999</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>1.3931999999999998</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <f t="shared" si="3"/>
         <v>3.9967486786135703E-3</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <f t="shared" si="4"/>
         <v>3.9967486786135703E-4</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <f t="shared" si="5"/>
         <v>9.8028921833862874</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <f t="shared" si="6"/>
         <v>6.9426219830839129</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <f t="shared" si="7"/>
         <v>0.18008643303448138</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>53.3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>14.65</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>14.66</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>14.65</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>14.64</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>14.64</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>0.53299999999999992</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>0.73006848993775919</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>14.648000000000001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>1.4648000000000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <f t="shared" si="3"/>
         <v>3.9967486786135703E-3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <f t="shared" si="4"/>
         <v>3.9967486786135703E-4</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <f t="shared" si="5"/>
         <v>9.8062884971556041</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="2">
         <f t="shared" si="6"/>
         <v>7.3006848993775915</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="2">
         <f t="shared" si="7"/>
         <v>0.1712473960713829</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>58.4</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>15.33</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>15.33</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>15.33</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>15.33</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>15.33</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>0.58399999999999996</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>0.76419892698171199</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>15.330000000000002</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <f t="shared" si="2"/>
         <v>1.5330000000000001</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="3"/>
-        <v>9.487308853711754E-16</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>9.487308853711754E-17</v>
-      </c>
-      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <f t="shared" si="5"/>
         <v>9.8098565526667265</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="2">
         <f t="shared" si="6"/>
         <v>7.6419892698171203</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="2">
         <f>SQRT(POWER(((4*3.1415)/POWER(L13,2))*O13,2)+POWER(((-8*C13*3.1415)/POWER(L13,3))*N13,2))</f>
         <v>1.6041094613863559E-2</v>
       </c>
